--- a/Simulation/Motor List.xlsx
+++ b/Simulation/Motor List.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>motor name</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Maxon</t>
   </si>
   <si>
-    <t>http://www.maxonmotor.com/maxon/view/category/motor?target=filter&amp;filterCategory=ec4pole</t>
-  </si>
-  <si>
     <t>http://www.maxonmotor.com/maxon/view/product/motor/ecmotor/ec/ec60/167131</t>
   </si>
   <si>
@@ -97,6 +94,18 @@
   </si>
   <si>
     <t>http://www.maxonmotor.com/maxon/view/product/motor/ecmotor/ecflat/ecflat90/244879</t>
+  </si>
+  <si>
+    <t>CHF 470.80</t>
+  </si>
+  <si>
+    <t>brushed</t>
+  </si>
+  <si>
+    <t>CHF 382.5</t>
+  </si>
+  <si>
+    <t>leave gap ^^ and program won't run with these motors</t>
   </si>
 </sst>
 </file>
@@ -458,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -522,125 +531,125 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>397800</v>
+        <v>353295</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4</v>
+        <v>23</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E2" s="1">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F2" s="1">
-        <v>6420</v>
+        <v>4090</v>
       </c>
       <c r="G2" s="1">
-        <v>0.48099999999999998</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="H2" s="1">
-        <v>3.35</v>
+        <v>15.7</v>
       </c>
       <c r="I2" s="1">
-        <v>47.5</v>
+        <v>292</v>
       </c>
       <c r="J2" s="1">
-        <v>1.01</v>
+        <v>8.2100000000000006E-2</v>
       </c>
       <c r="K2" s="1">
-        <v>7.0499999999999993E-2</v>
+        <v>5.3699999999999998E-2</v>
       </c>
       <c r="L2" s="1">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="M2" s="1">
-        <v>140</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>167131</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>48</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3100</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="H3" s="1">
-        <v>6.82</v>
-      </c>
-      <c r="I3" s="1">
-        <v>46.4</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1.03</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="A3">
+        <v>370354</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3">
+        <v>24</v>
+      </c>
+      <c r="F3">
+        <v>5680</v>
+      </c>
+      <c r="G3">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="H3">
+        <v>8.92</v>
+      </c>
+      <c r="I3">
+        <v>232</v>
+      </c>
+      <c r="J3">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="K3">
+        <v>3.85E-2</v>
+      </c>
+      <c r="L3">
+        <v>248</v>
+      </c>
+      <c r="M3">
+        <v>536</v>
+      </c>
+      <c r="N3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>370355</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <v>36</v>
+      </c>
+      <c r="F4">
+        <v>5680</v>
+      </c>
+      <c r="G4">
         <v>0.14699999999999999</v>
       </c>
-      <c r="L3" s="1">
-        <v>65</v>
-      </c>
-      <c r="M3" s="1">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>167132</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>48</v>
-      </c>
-      <c r="F4" s="1">
-        <v>5370</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="H4" s="1">
-        <v>11.8</v>
-      </c>
-      <c r="I4" s="1">
-        <v>139</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="K4" s="1">
-        <v>8.4900000000000003E-2</v>
-      </c>
-      <c r="L4" s="1">
-        <v>113</v>
-      </c>
-      <c r="M4" s="1">
-        <v>831</v>
+      <c r="H4">
+        <v>8.92</v>
+      </c>
+      <c r="I4">
+        <v>148</v>
+      </c>
+      <c r="J4">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="K4">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="L4">
+        <v>158</v>
+      </c>
+      <c r="M4">
+        <v>560</v>
+      </c>
+      <c r="N4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -651,10 +660,10 @@
         <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E5" s="1">
         <v>36</v>
@@ -692,10 +701,10 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1">
         <v>18</v>
@@ -733,7 +742,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>3</v>
@@ -774,7 +783,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -815,7 +824,7 @@
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
@@ -850,103 +859,184 @@
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>353295</v>
+        <v>148867</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>19</v>
+      <c r="D10" t="s">
+        <v>26</v>
       </c>
       <c r="E10" s="1">
         <v>24</v>
       </c>
       <c r="F10" s="1">
-        <v>4090</v>
+        <v>7580</v>
       </c>
       <c r="G10" s="1">
-        <v>0.69699999999999995</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>15.7</v>
+        <v>2.42</v>
       </c>
       <c r="I10" s="1">
-        <v>292</v>
+        <v>80.2</v>
       </c>
       <c r="J10" s="1">
-        <v>8.2100000000000006E-2</v>
+        <v>0.29899999999999999</v>
       </c>
       <c r="K10" s="1">
-        <v>5.3699999999999998E-2</v>
+        <v>3.0200000000000001E-2</v>
       </c>
       <c r="L10" s="1">
-        <v>178</v>
+        <v>317</v>
       </c>
       <c r="M10" s="1">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+        <v>142</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>244879</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1">
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1">
         <v>3</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E14" s="1">
         <v>48</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F14" s="1">
         <v>2080</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G14" s="1">
         <v>0.13400000000000001</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H14" s="1">
         <v>4.57</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I14" s="1">
         <v>21.1</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J14" s="1">
         <v>2.2799999999999998</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K14" s="1">
         <v>0.217</v>
       </c>
-      <c r="L11" s="1">
+      <c r="L14" s="1">
         <v>44</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M14" s="1">
         <v>3060</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>167131</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1">
+        <v>48</v>
+      </c>
+      <c r="F15" s="1">
+        <v>3100</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.26800000000000002</v>
+      </c>
+      <c r="H15" s="1">
+        <v>6.82</v>
+      </c>
+      <c r="I15" s="1">
+        <v>46.4</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="L15" s="1">
+        <v>65</v>
+      </c>
+      <c r="M15" s="1">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>167132</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>48</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5370</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="H16" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="I16" s="1">
+        <v>139</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="K16" s="1">
+        <v>8.4900000000000003E-2</v>
+      </c>
+      <c r="L16" s="1">
+        <v>113</v>
+      </c>
+      <c r="M16" s="1">
+        <v>831</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-    <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
-    <hyperlink ref="C6" r:id="rId5"/>
-    <hyperlink ref="C7" r:id="rId6"/>
-    <hyperlink ref="C8" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
-    <hyperlink ref="C10" r:id="rId9"/>
-    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C15" r:id="rId1"/>
+    <hyperlink ref="C16" r:id="rId2"/>
+    <hyperlink ref="C5" r:id="rId3"/>
+    <hyperlink ref="C6" r:id="rId4"/>
+    <hyperlink ref="C7" r:id="rId5"/>
+    <hyperlink ref="C8" r:id="rId6"/>
+    <hyperlink ref="C9" r:id="rId7"/>
+    <hyperlink ref="C2" r:id="rId8"/>
+    <hyperlink ref="C14" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Simulation/Motor List.xlsx
+++ b/Simulation/Motor List.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -530,205 +530,164 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>353295</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="A2">
+        <v>370354</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2">
         <v>24</v>
       </c>
-      <c r="F2" s="1">
-        <v>4090</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="H2" s="1">
-        <v>15.7</v>
-      </c>
-      <c r="I2" s="1">
-        <v>292</v>
-      </c>
-      <c r="J2" s="1">
-        <v>8.2100000000000006E-2</v>
-      </c>
-      <c r="K2" s="1">
-        <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="L2" s="1">
-        <v>178</v>
-      </c>
-      <c r="M2" s="1">
-        <v>1290</v>
+      <c r="F2">
+        <v>5680</v>
+      </c>
+      <c r="G2">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="H2">
+        <v>8.92</v>
+      </c>
+      <c r="I2">
+        <v>232</v>
+      </c>
+      <c r="J2">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="K2">
+        <v>3.85E-2</v>
+      </c>
+      <c r="L2">
+        <v>248</v>
+      </c>
+      <c r="M2">
+        <v>536</v>
+      </c>
+      <c r="N2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>370354</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="A3" s="1">
+        <v>148867</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="1">
+        <v>24</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7580</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="I3" s="1">
+        <v>80.2</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="K3" s="1">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>317</v>
+      </c>
+      <c r="M3" s="1">
+        <v>142</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>370355</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E3">
-        <v>24</v>
-      </c>
-      <c r="F3">
+      <c r="E5">
+        <v>36</v>
+      </c>
+      <c r="F5">
         <v>5680</v>
       </c>
-      <c r="G3">
-        <v>0.23599999999999999</v>
-      </c>
-      <c r="H3">
+      <c r="G5">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="H5">
         <v>8.92</v>
       </c>
-      <c r="I3">
-        <v>232</v>
-      </c>
-      <c r="J3">
-        <v>0.10299999999999999</v>
-      </c>
-      <c r="K3">
-        <v>3.85E-2</v>
-      </c>
-      <c r="L3">
-        <v>248</v>
-      </c>
-      <c r="M3">
-        <v>536</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="I5">
+        <v>148</v>
+      </c>
+      <c r="J5">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="K5">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="L5">
+        <v>158</v>
+      </c>
+      <c r="M5">
+        <v>560</v>
+      </c>
+      <c r="N5" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>370355</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>36</v>
-      </c>
-      <c r="F4">
-        <v>5680</v>
-      </c>
-      <c r="G4">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="H4">
-        <v>8.92</v>
-      </c>
-      <c r="I4">
-        <v>148</v>
-      </c>
-      <c r="J4">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="K4">
-        <v>6.0400000000000002E-2</v>
-      </c>
-      <c r="L4">
-        <v>158</v>
-      </c>
-      <c r="M4">
-        <v>560</v>
-      </c>
-      <c r="N4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>353296</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="1">
-        <v>36</v>
-      </c>
-      <c r="F5" s="1">
-        <v>3970</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.437</v>
-      </c>
-      <c r="H5" s="1">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="I5" s="1">
-        <v>207</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="K5" s="1">
-        <v>8.4400000000000003E-2</v>
-      </c>
-      <c r="L5" s="1">
-        <v>113</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1380</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>353294</v>
+        <v>353296</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E6" s="1">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1">
-        <v>3520</v>
+        <v>3970</v>
       </c>
       <c r="G6" s="1">
-        <v>0.755</v>
+        <v>0.437</v>
       </c>
       <c r="H6" s="1">
-        <v>13.6</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>0.29499999999999998</v>
+        <v>207</v>
       </c>
       <c r="J6" s="1">
-        <v>6.0900000000000003E-2</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="K6" s="1">
-        <v>4.5999999999999999E-2</v>
+        <v>8.4400000000000003E-2</v>
       </c>
       <c r="L6" s="1">
-        <v>208</v>
+        <v>113</v>
       </c>
       <c r="M6" s="1">
         <v>1380</v>
@@ -736,54 +695,54 @@
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>136210</v>
+        <v>353294</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="E7" s="1">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F7" s="1">
-        <v>8670</v>
+        <v>3520</v>
       </c>
       <c r="G7" s="1">
-        <v>0.89700000000000002</v>
+        <v>0.755</v>
       </c>
       <c r="H7" s="1">
-        <v>4.4000000000000004</v>
+        <v>13.6</v>
       </c>
       <c r="I7" s="1">
-        <v>167</v>
+        <v>0.29499999999999998</v>
       </c>
       <c r="J7" s="1">
-        <v>0.14299999999999999</v>
+        <v>6.0900000000000003E-2</v>
       </c>
       <c r="K7" s="1">
-        <v>2.63E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="L7" s="1">
-        <v>364</v>
+        <v>208</v>
       </c>
       <c r="M7" s="1">
-        <v>209</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>136207</v>
+        <v>136210</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>3</v>
@@ -792,25 +751,25 @@
         <v>24</v>
       </c>
       <c r="F8" s="1">
-        <v>5000</v>
+        <v>8670</v>
       </c>
       <c r="G8" s="1">
-        <v>0.34100000000000003</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="H8" s="1">
-        <v>2.54</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I8" s="1">
-        <v>55.8</v>
+        <v>167</v>
       </c>
       <c r="J8" s="1">
-        <v>0.43</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="K8" s="1">
-        <v>4.5499999999999999E-2</v>
+        <v>2.63E-2</v>
       </c>
       <c r="L8" s="1">
-        <v>210</v>
+        <v>364</v>
       </c>
       <c r="M8" s="1">
         <v>209</v>
@@ -818,141 +777,156 @@
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>429271</v>
+        <v>136207</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="1">
         <v>3</v>
       </c>
       <c r="E9" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1">
-        <v>3120</v>
+        <v>5000</v>
       </c>
       <c r="G9" s="1">
-        <v>0.34499999999999997</v>
+        <v>0.34100000000000003</v>
       </c>
       <c r="H9" s="1">
-        <v>7.48</v>
+        <v>2.54</v>
       </c>
       <c r="I9" s="1">
-        <v>69</v>
+        <v>55.8</v>
       </c>
       <c r="J9" s="1">
-        <v>0.52200000000000002</v>
+        <v>0.43</v>
       </c>
       <c r="K9" s="1">
-        <v>0.109</v>
+        <v>4.5499999999999999E-2</v>
       </c>
       <c r="L9" s="1">
-        <v>88</v>
+        <v>210</v>
       </c>
       <c r="M9" s="1">
-        <v>3060</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>148867</v>
+        <v>429271</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
       </c>
       <c r="E10" s="1">
+        <v>36</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3120</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="H10" s="1">
+        <v>7.48</v>
+      </c>
+      <c r="I10" s="1">
+        <v>69</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.109</v>
+      </c>
+      <c r="L10" s="1">
+        <v>88</v>
+      </c>
+      <c r="M10" s="1">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>353295</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1">
         <v>24</v>
       </c>
-      <c r="F10" s="1">
-        <v>7580</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="H10" s="1">
-        <v>2.42</v>
-      </c>
-      <c r="I10" s="1">
-        <v>80.2</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="K10" s="1">
-        <v>3.0200000000000001E-2</v>
-      </c>
-      <c r="L10" s="1">
-        <v>317</v>
-      </c>
-      <c r="M10" s="1">
-        <v>142</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>27</v>
+      <c r="F11" s="1">
+        <v>4090</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="H11" s="1">
+        <v>15.7</v>
+      </c>
+      <c r="I11" s="1">
+        <v>292</v>
+      </c>
+      <c r="J11" s="1">
+        <v>8.2100000000000006E-2</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>178</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1290</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>244879</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3</v>
-      </c>
-      <c r="E14" s="1">
-        <v>48</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2080</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="H14" s="1">
-        <v>4.57</v>
-      </c>
-      <c r="I14" s="1">
-        <v>21.1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0.217</v>
-      </c>
-      <c r="L14" s="1">
-        <v>44</v>
-      </c>
-      <c r="M14" s="1">
-        <v>3060</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>167131</v>
+        <v>244879</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D15" s="1">
         <v>3</v>
@@ -961,39 +935,39 @@
         <v>48</v>
       </c>
       <c r="F15" s="1">
-        <v>3100</v>
+        <v>2080</v>
       </c>
       <c r="G15" s="1">
-        <v>0.26800000000000002</v>
+        <v>0.13400000000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>6.82</v>
+        <v>4.57</v>
       </c>
       <c r="I15" s="1">
-        <v>46.4</v>
+        <v>21.1</v>
       </c>
       <c r="J15" s="1">
-        <v>1.03</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="K15" s="1">
-        <v>0.14699999999999999</v>
+        <v>0.217</v>
       </c>
       <c r="L15" s="1">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="M15" s="1">
-        <v>831</v>
+        <v>3060</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>167132</v>
+        <v>167131</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1">
         <v>3</v>
@@ -1002,41 +976,82 @@
         <v>48</v>
       </c>
       <c r="F16" s="1">
-        <v>5370</v>
+        <v>3100</v>
       </c>
       <c r="G16" s="1">
-        <v>0.67</v>
+        <v>0.26800000000000002</v>
       </c>
       <c r="H16" s="1">
-        <v>11.8</v>
+        <v>6.82</v>
       </c>
       <c r="I16" s="1">
-        <v>139</v>
+        <v>46.4</v>
       </c>
       <c r="J16" s="1">
-        <v>0.34499999999999997</v>
+        <v>1.03</v>
       </c>
       <c r="K16" s="1">
-        <v>8.4900000000000003E-2</v>
+        <v>0.14699999999999999</v>
       </c>
       <c r="L16" s="1">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="M16" s="1">
         <v>831</v>
       </c>
     </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>167132</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1">
+        <v>48</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5370</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0.67</v>
+      </c>
+      <c r="H17" s="1">
+        <v>11.8</v>
+      </c>
+      <c r="I17" s="1">
+        <v>139</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="K17" s="1">
+        <v>8.4900000000000003E-2</v>
+      </c>
+      <c r="L17" s="1">
+        <v>113</v>
+      </c>
+      <c r="M17" s="1">
+        <v>831</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C15" r:id="rId1"/>
-    <hyperlink ref="C16" r:id="rId2"/>
-    <hyperlink ref="C5" r:id="rId3"/>
-    <hyperlink ref="C6" r:id="rId4"/>
-    <hyperlink ref="C7" r:id="rId5"/>
-    <hyperlink ref="C8" r:id="rId6"/>
-    <hyperlink ref="C9" r:id="rId7"/>
-    <hyperlink ref="C2" r:id="rId8"/>
-    <hyperlink ref="C14" r:id="rId9"/>
+    <hyperlink ref="C16" r:id="rId1"/>
+    <hyperlink ref="C17" r:id="rId2"/>
+    <hyperlink ref="C6" r:id="rId3"/>
+    <hyperlink ref="C7" r:id="rId4"/>
+    <hyperlink ref="C8" r:id="rId5"/>
+    <hyperlink ref="C9" r:id="rId6"/>
+    <hyperlink ref="C10" r:id="rId7"/>
+    <hyperlink ref="C11" r:id="rId8"/>
+    <hyperlink ref="C15" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Simulation/Motor List.xlsx
+++ b/Simulation/Motor List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>motor name</t>
   </si>
@@ -66,36 +66,18 @@
     <t>Maxon</t>
   </si>
   <si>
-    <t>http://www.maxonmotor.com/maxon/view/product/motor/ecmotor/ec/ec60/167131</t>
-  </si>
-  <si>
-    <t>http://www.maxonmotor.com/maxon/view/product/motor/ecmotor/ec/ec60/167132</t>
-  </si>
-  <si>
-    <t>http://www.maxonmotor.com/maxon/view/product/motor/dcmotor/re/re65/353296</t>
-  </si>
-  <si>
     <t>Brushed</t>
   </si>
   <si>
-    <t>http://www.maxonmotor.com/maxon/view/product/motor/dcmotor/re/re65/353294</t>
-  </si>
-  <si>
     <t>http://www.maxonmotor.com/maxon/view/product/motor/ecmotor/ec/ec45/136210</t>
   </si>
   <si>
     <t>http://www.maxonmotor.com/maxon/view/product/motor/ecmotor/ec/ec45/136207</t>
   </si>
   <si>
-    <t>http://www.maxonmotor.com/maxon/view/product/motor/ecmotor/ecflat/ecflat90/429271</t>
-  </si>
-  <si>
     <t>http://www.maxonmotor.com/maxon/view/product/motor/dcmotor/re/re65/353295</t>
   </si>
   <si>
-    <t>http://www.maxonmotor.com/maxon/view/product/motor/ecmotor/ecflat/ecflat90/244879</t>
-  </si>
-  <si>
     <t>CHF 470.80</t>
   </si>
   <si>
@@ -103,9 +85,6 @@
   </si>
   <si>
     <t>CHF 382.5</t>
-  </si>
-  <si>
-    <t>leave gap ^^ and program won't run with these motors</t>
   </si>
 </sst>
 </file>
@@ -467,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -537,7 +516,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>24</v>
@@ -567,7 +546,7 @@
         <v>536</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -578,7 +557,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1">
         <v>24</v>
@@ -608,450 +587,223 @@
         <v>142</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>353295</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4090</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.69699999999999995</v>
+      </c>
+      <c r="H4" s="1">
+        <v>15.7</v>
+      </c>
+      <c r="I4" s="1">
+        <v>292</v>
+      </c>
+      <c r="J4" s="1">
+        <v>8.2100000000000006E-2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>5.3699999999999998E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>178</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1290</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>370355</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
-        <v>36</v>
-      </c>
-      <c r="F5">
-        <v>5680</v>
-      </c>
-      <c r="G5">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="H5">
-        <v>8.92</v>
-      </c>
-      <c r="I5">
-        <v>148</v>
-      </c>
-      <c r="J5">
-        <v>0.24399999999999999</v>
-      </c>
-      <c r="K5">
-        <v>6.0400000000000002E-2</v>
-      </c>
-      <c r="L5">
-        <v>158</v>
-      </c>
-      <c r="M5">
-        <v>560</v>
-      </c>
-      <c r="N5" t="s">
-        <v>25</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>353296</v>
+        <v>136210</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1">
-        <v>3970</v>
+        <v>8670</v>
       </c>
       <c r="G6" s="1">
-        <v>0.437</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>17.399999999999999</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="I6" s="1">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="J6" s="1">
-        <v>0.17399999999999999</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="K6" s="1">
-        <v>8.4400000000000003E-2</v>
+        <v>2.63E-2</v>
       </c>
       <c r="L6" s="1">
-        <v>113</v>
+        <v>364</v>
       </c>
       <c r="M6" s="1">
-        <v>1380</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>353294</v>
+        <v>136207</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5000</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="I7" s="1">
+        <v>55.8</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="K7" s="1">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>210</v>
+      </c>
+      <c r="M7" s="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>370355</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>36</v>
+      </c>
+      <c r="F8">
+        <v>5680</v>
+      </c>
+      <c r="G8">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="H8">
+        <v>8.92</v>
+      </c>
+      <c r="I8">
+        <v>148</v>
+      </c>
+      <c r="J8">
+        <v>0.24399999999999999</v>
+      </c>
+      <c r="K8">
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="L8">
+        <v>158</v>
+      </c>
+      <c r="M8">
+        <v>560</v>
+      </c>
+      <c r="N8" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="1">
-        <v>18</v>
-      </c>
-      <c r="F7" s="1">
-        <v>3520</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.755</v>
-      </c>
-      <c r="H7" s="1">
-        <v>13.6</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="J7" s="1">
-        <v>6.0900000000000003E-2</v>
-      </c>
-      <c r="K7" s="1">
-        <v>4.5999999999999999E-2</v>
-      </c>
-      <c r="L7" s="1">
-        <v>208</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>136210</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>24</v>
-      </c>
-      <c r="F8" s="1">
-        <v>8670</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.89700000000000002</v>
-      </c>
-      <c r="H8" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="I8" s="1">
-        <v>167</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="K8" s="1">
-        <v>2.63E-2</v>
-      </c>
-      <c r="L8" s="1">
-        <v>364</v>
-      </c>
-      <c r="M8" s="1">
-        <v>209</v>
-      </c>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>136207</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>24</v>
-      </c>
-      <c r="F9" s="1">
-        <v>5000</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="H9" s="1">
-        <v>2.54</v>
-      </c>
-      <c r="I9" s="1">
-        <v>55.8</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0.43</v>
-      </c>
-      <c r="K9" s="1">
-        <v>4.5499999999999999E-2</v>
-      </c>
-      <c r="L9" s="1">
-        <v>210</v>
-      </c>
-      <c r="M9" s="1">
-        <v>209</v>
-      </c>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>429271</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>36</v>
-      </c>
-      <c r="F10" s="1">
-        <v>3120</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="H10" s="1">
-        <v>7.48</v>
-      </c>
-      <c r="I10" s="1">
-        <v>69</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0.109</v>
-      </c>
-      <c r="L10" s="1">
-        <v>88</v>
-      </c>
-      <c r="M10" s="1">
-        <v>3060</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>353295</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="1">
-        <v>24</v>
-      </c>
-      <c r="F11" s="1">
-        <v>4090</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0.69699999999999995</v>
-      </c>
-      <c r="H11" s="1">
-        <v>15.7</v>
-      </c>
-      <c r="I11" s="1">
-        <v>292</v>
-      </c>
-      <c r="J11" s="1">
-        <v>8.2100000000000006E-2</v>
-      </c>
-      <c r="K11" s="1">
-        <v>5.3699999999999998E-2</v>
-      </c>
-      <c r="L11" s="1">
-        <v>178</v>
-      </c>
-      <c r="M11" s="1">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>244879</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3</v>
-      </c>
-      <c r="E15" s="1">
-        <v>48</v>
-      </c>
-      <c r="F15" s="1">
-        <v>2080</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="H15" s="1">
-        <v>4.57</v>
-      </c>
-      <c r="I15" s="1">
-        <v>21.1</v>
-      </c>
-      <c r="J15" s="1">
-        <v>2.2799999999999998</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0.217</v>
-      </c>
-      <c r="L15" s="1">
-        <v>44</v>
-      </c>
-      <c r="M15" s="1">
-        <v>3060</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>167131</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>48</v>
-      </c>
-      <c r="F16" s="1">
-        <v>3100</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0.26800000000000002</v>
-      </c>
-      <c r="H16" s="1">
-        <v>6.82</v>
-      </c>
-      <c r="I16" s="1">
-        <v>46.4</v>
-      </c>
-      <c r="J16" s="1">
-        <v>1.03</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0.14699999999999999</v>
-      </c>
-      <c r="L16" s="1">
-        <v>65</v>
-      </c>
-      <c r="M16" s="1">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>167132</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="1">
-        <v>3</v>
-      </c>
-      <c r="E17" s="1">
-        <v>48</v>
-      </c>
-      <c r="F17" s="1">
-        <v>5370</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0.67</v>
-      </c>
-      <c r="H17" s="1">
-        <v>11.8</v>
-      </c>
-      <c r="I17" s="1">
-        <v>139</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0.34499999999999997</v>
-      </c>
-      <c r="K17" s="1">
-        <v>8.4900000000000003E-2</v>
-      </c>
-      <c r="L17" s="1">
-        <v>113</v>
-      </c>
-      <c r="M17" s="1">
-        <v>831</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C16" r:id="rId1"/>
-    <hyperlink ref="C17" r:id="rId2"/>
-    <hyperlink ref="C6" r:id="rId3"/>
-    <hyperlink ref="C7" r:id="rId4"/>
-    <hyperlink ref="C8" r:id="rId5"/>
-    <hyperlink ref="C9" r:id="rId6"/>
-    <hyperlink ref="C10" r:id="rId7"/>
-    <hyperlink ref="C11" r:id="rId8"/>
-    <hyperlink ref="C15" r:id="rId9"/>
+    <hyperlink ref="C6" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Simulation/Motor List.xlsx
+++ b/Simulation/Motor List.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>motor name</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>CHF 382.5</t>
+  </si>
+  <si>
+    <t>ThermalTimeConstantWinding</t>
   </si>
 </sst>
 </file>
@@ -446,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -464,7 +467,7 @@
     <col min="13" max="13" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -507,8 +510,11 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>370354</v>
       </c>
@@ -548,49 +554,11 @@
       <c r="N2" t="s">
         <v>19</v>
       </c>
+      <c r="O2">
+        <v>68.5</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>148867</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="1">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1">
-        <v>7580</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="H3" s="1">
-        <v>2.42</v>
-      </c>
-      <c r="I3" s="1">
-        <v>80.2</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.29899999999999999</v>
-      </c>
-      <c r="K3" s="1">
-        <v>3.0200000000000001E-2</v>
-      </c>
-      <c r="L3" s="1">
-        <v>317</v>
-      </c>
-      <c r="M3" s="1">
-        <v>142</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>353295</v>
       </c>
@@ -631,22 +599,48 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>148867</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7580</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="I5" s="1">
+        <v>80.2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3.0200000000000001E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>317</v>
+      </c>
+      <c r="M5" s="1">
+        <v>142</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>136210</v>
       </c>
@@ -687,7 +681,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>136207</v>
       </c>
@@ -728,7 +722,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>370355</v>
       </c>
@@ -769,7 +763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="2"/>
@@ -784,7 +778,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="2"/>
